--- a/Desktop/Label Loker PMS.xlsx
+++ b/Desktop/Label Loker PMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AF6B01-A00A-4820-B6A1-BE55A45BD9DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED7B852-1DBD-49E7-A584-18A3E0C280D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10515" windowHeight="4470" xr2:uid="{039CCBC7-FD5C-40BE-AF8D-0CB5CDE988AB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="1">
   <si>
     <t>PMS</t>
   </si>
@@ -1291,6 +1291,776 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="161925" y="6753225"/>
+          <a:ext cx="2505075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73BF39A7-75DC-47E4-A47B-E15E117537C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="1438275"/>
+          <a:ext cx="2505075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E8B691-92E0-4E4C-B5F6-D3D9E292E114}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="1438275"/>
+          <a:ext cx="2505075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AC12330-EC8B-4433-A11E-5F6D479087B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="1438275"/>
+          <a:ext cx="2505075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D9791B2-B9F9-4062-923F-C225B0F39D94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="1438275"/>
+          <a:ext cx="2505075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA89374-05EC-4105-9130-6CE7EF4B3501}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="3286125"/>
+          <a:ext cx="2505075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B3925A-4E7B-451D-BC06-429D9C5B9D8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="3286125"/>
+          <a:ext cx="2505075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A4074F-441E-470C-99AC-F16F07BA7A99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="3286125"/>
+          <a:ext cx="2505075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C077E2E0-D1BD-43DC-9980-5602DA7186B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="3286125"/>
+          <a:ext cx="2505075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D6494E-76C8-4725-A429-8241B32E4285}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="3286125"/>
+          <a:ext cx="2505075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74C81E17-A1B6-4D79-B913-BE7EBA3A5D4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="3286125"/>
+          <a:ext cx="2505075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EAD8775-B8AC-442C-B985-8B9319E028A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="5133975"/>
+          <a:ext cx="2505075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{113DD0EA-4738-4E7F-993C-572E5F8AD653}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="5133975"/>
+          <a:ext cx="2505075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAEB7729-A82D-44C4-9672-51BAF65E63E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="5133975"/>
+          <a:ext cx="2505075" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1438275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF57462A-5F3E-4AD9-8858-2C4342153F72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="5133975"/>
           <a:ext cx="2505075" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1619,10 +2389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287872D2-B731-406C-BC52-72984C804F3A}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,7 +2400,7 @@
     <col min="1" max="2" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="139.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1638,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="139.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1646,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="139.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="139.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1662,11 +2432,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="139.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="145.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
